--- a/Export/Model-Perf_Summary_v1.xlsx
+++ b/Export/Model-Perf_Summary_v1.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cdc4f9836624c718/Documents/Grad-School-Docs/CapstoneProject/Repo/Export/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_F5329CC697D9AECF8A160B53B3DBA1587118D4EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D9745A9-1800-4641-9E03-ECADB1117580}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -113,8 +119,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +183,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -223,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,9 +269,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,6 +321,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -464,14 +514,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="51.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -502,7 +557,7 @@
         <v>0.8</v>
       </c>
       <c r="D2">
-        <v>0.3333</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="E2">
         <v>0.2727</v>
@@ -514,7 +569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -525,19 +580,19 @@
         <v>0.8</v>
       </c>
       <c r="D3">
-        <v>0.2857</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="E3">
-        <v>0.1818</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="F3">
-        <v>0.2222</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -548,19 +603,19 @@
         <v>0.7</v>
       </c>
       <c r="D4">
-        <v>0.2222</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="E4">
-        <v>0.3636</v>
+        <v>0.36359999999999998</v>
       </c>
       <c r="F4">
-        <v>0.2759</v>
+        <v>0.27589999999999998</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -568,22 +623,22 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.6429</v>
+        <v>0.64290000000000003</v>
       </c>
       <c r="D5">
-        <v>0.2083</v>
+        <v>0.20830000000000001</v>
       </c>
       <c r="E5">
-        <v>0.4545</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="F5">
-        <v>0.2857</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -591,7 +646,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.7714</v>
+        <v>0.77139999999999997</v>
       </c>
       <c r="D6">
         <v>0.2727</v>
@@ -606,7 +661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -617,7 +672,7 @@
         <v>0.8</v>
       </c>
       <c r="D7">
-        <v>0.3333</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="E7">
         <v>0.2727</v>
@@ -629,7 +684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -637,22 +692,22 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>0.6429</v>
+        <v>0.64290000000000003</v>
       </c>
       <c r="D8">
-        <v>0.2083</v>
+        <v>0.20830000000000001</v>
       </c>
       <c r="E8">
-        <v>0.4545</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="F8">
-        <v>0.2857</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -660,22 +715,22 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>0.4714</v>
+        <v>0.47139999999999999</v>
       </c>
       <c r="D9">
         <v>0.1389</v>
       </c>
       <c r="E9">
-        <v>0.4545</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="F9">
-        <v>0.2128</v>
+        <v>0.21279999999999999</v>
       </c>
       <c r="G9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -689,7 +744,7 @@
         <v>0.2</v>
       </c>
       <c r="E10">
-        <v>0.1818</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="F10">
         <v>0.1905</v>
@@ -698,7 +753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -706,10 +761,10 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>0.6571</v>
+        <v>0.65710000000000002</v>
       </c>
       <c r="D11">
-        <v>0.1579</v>
+        <v>0.15790000000000001</v>
       </c>
       <c r="E11">
         <v>0.2727</v>
@@ -721,7 +776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -732,7 +787,7 @@
         <v>0.6714</v>
       </c>
       <c r="D12">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="E12">
         <v>0.2727</v>
@@ -744,7 +799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -752,16 +807,16 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>0.6429</v>
+        <v>0.64290000000000003</v>
       </c>
       <c r="D13">
         <v>0.1111</v>
       </c>
       <c r="E13">
-        <v>0.1818</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="F13">
-        <v>0.1379</v>
+        <v>0.13789999999999999</v>
       </c>
       <c r="G13" t="s">
         <v>27</v>
